--- a/data/trans_dic/P59A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P59A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>2,61; 22,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>5,92; 28,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>19,9; 45,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>1,99; 15,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>4,32; 24,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>5,91; 40,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>11,37; 33,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>5,33; 23,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>5,05; 19,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>9,04; 26,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>19,77; 37,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>5,04; 16,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>5,69; 14,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>9,28; 19,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>9,65; 18,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>9,93; 19,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>2,2; 8,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>7,39; 16,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>7,65; 16,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>8,27; 15,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>4,88; 9,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>9,33; 16,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>9,72; 15,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>9,92; 16,2</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>8,43; 16,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>11,93; 19,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>13,21; 21,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>12,32; 21,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>6,15; 12,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>9,58; 17,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>12,28; 19,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>11,96; 18,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,15; 12,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>11,61; 16,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>13,91; 19,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,22; 18,52</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>9,63; 19,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>14,14; 24,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>12,82; 21,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>14,89; 25,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>7,64; 15,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>10,69; 19,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>10,49; 17,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>12,91; 21,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>9,61; 15,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>13,32; 19,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>12,5; 18,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>15,34; 22,12</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,29%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>13,96; 21,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>10,87; 17,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>15,02; 22,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>11,39; 19,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>10,1; 16,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>13,33; 20,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>10,65; 16,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>7,98; 12,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>13,13; 17,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>12,91; 17,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>13,49; 18,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>10,22; 14,31</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,82; 15,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>13,31; 17,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>15,46; 19,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>13,88; 18,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>8,62; 12,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,24; 16,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,32; 15,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,44; 14,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,65; 13,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,31; 16,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,38; 17,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>13,19; 15,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P59A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>12,22%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 22,18</t>
+          <t>6,23; 13,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 28,69</t>
+          <t>9,93; 19,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,9; 45,89</t>
+          <t>13,04; 22,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 15,52</t>
+          <t>8,75; 17,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 24,71</t>
+          <t>3,45; 9,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 40,51</t>
+          <t>8,32; 17,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,37; 33,84</t>
+          <t>9,53; 17,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 23,45</t>
+          <t>8,6; 15,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 19,79</t>
+          <t>5,61; 10,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 26,99</t>
+          <t>10,43; 16,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 37,13</t>
+          <t>12,47; 18,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 16,93</t>
+          <t>9,75; 15,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>16,09%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 14,34</t>
+          <t>8,43; 16,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,29</t>
+          <t>11,93; 19,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 18,65</t>
+          <t>13,21; 21,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 19,87</t>
+          <t>12,23; 21,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,69</t>
+          <t>6,15; 12,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 16,39</t>
+          <t>9,58; 17,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 16,34</t>
+          <t>12,28; 19,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,58</t>
+          <t>12,48; 19,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,93</t>
+          <t>8,15; 12,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 16,44</t>
+          <t>11,61; 16,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,48</t>
+          <t>13,91; 19,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,2</t>
+          <t>13,46; 19,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>18,32%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 16,02</t>
+          <t>9,63; 19,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 19,37</t>
+          <t>14,14; 24,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,05</t>
+          <t>12,82; 21,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 21,03</t>
+          <t>14,74; 25,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,54</t>
+          <t>7,64; 15,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,01</t>
+          <t>10,69; 19,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 19,84</t>
+          <t>10,49; 17,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,66</t>
+          <t>13,28; 21,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,99</t>
+          <t>9,61; 15,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 16,72</t>
+          <t>13,32; 19,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 19,34</t>
+          <t>12,5; 18,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 18,52</t>
+          <t>15,27; 22,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 19,83</t>
+          <t>13,96; 21,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 24,0</t>
+          <t>10,87; 17,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 21,8</t>
+          <t>15,02; 22,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 25,34</t>
+          <t>11,43; 18,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 15,36</t>
+          <t>10,1; 16,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,22</t>
+          <t>13,33; 20,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,7</t>
+          <t>10,65; 16,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 21,33</t>
+          <t>6,72; 12,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,68</t>
+          <t>13,13; 17,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,32; 19,91</t>
+          <t>12,91; 17,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 18,03</t>
+          <t>13,49; 18,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 22,12</t>
+          <t>9,17; 14,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,56</t>
+          <t>11,82; 15,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,59</t>
+          <t>13,31; 17,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,39</t>
+          <t>15,46; 19,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,39; 19,01</t>
+          <t>13,72; 18,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,3</t>
+          <t>8,62; 12,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,46</t>
+          <t>12,24; 16,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,59</t>
+          <t>12,32; 15,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,96</t>
+          <t>10,87; 14,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,13; 17,79</t>
+          <t>10,65; 13,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 17,94</t>
+          <t>13,31; 16,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,49; 18,34</t>
+          <t>14,38; 17,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,31</t>
+          <t>13,14; 15,91</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13,68%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,3%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,46%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>15,95%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>14,07%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,09%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,89%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>14,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,82; 15,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,31; 17,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>15,46; 19,46</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>13,88; 18,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,62; 12,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,24; 16,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>12,32; 15,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,44; 14,58</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>10,65; 13,38</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>13,31; 16,12</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>14,38; 17,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,19; 15,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P59A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,77</t>
+          <t>6,4; 14,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 19,19</t>
+          <t>9,61; 18,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,04; 22,57</t>
+          <t>13,16; 22,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,28</t>
+          <t>8,89; 18,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,5</t>
+          <t>3,62; 9,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 17,45</t>
+          <t>8,31; 17,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 17,62</t>
+          <t>9,81; 17,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 15,61</t>
+          <t>8,83; 15,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,65</t>
+          <t>5,65; 10,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 16,34</t>
+          <t>10,12; 16,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,51</t>
+          <t>12,15; 18,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 15,3</t>
+          <t>9,69; 15,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 16,02</t>
+          <t>8,55; 15,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 19,37</t>
+          <t>11,95; 19,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,05</t>
+          <t>12,93; 20,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 21,09</t>
+          <t>12,31; 21,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,54</t>
+          <t>5,83; 12,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,01</t>
+          <t>9,55; 16,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 19,84</t>
+          <t>12,28; 19,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,31</t>
+          <t>12,52; 19,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,99</t>
+          <t>8,1; 12,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 16,72</t>
+          <t>11,59; 16,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,91; 19,34</t>
+          <t>13,74; 18,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 19,03</t>
+          <t>13,51; 19,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 19,83</t>
+          <t>10,1; 19,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 24,0</t>
+          <t>14,07; 23,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 21,8</t>
+          <t>12,9; 21,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 25,27</t>
+          <t>14,65; 24,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 15,36</t>
+          <t>7,77; 15,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,22</t>
+          <t>10,43; 18,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,7</t>
+          <t>10,16; 17,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 21,66</t>
+          <t>13,42; 21,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,68</t>
+          <t>9,25; 15,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 19,91</t>
+          <t>13,1; 19,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 18,03</t>
+          <t>12,44; 18,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,27; 22,11</t>
+          <t>15,0; 21,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,56</t>
+          <t>14,06; 21,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,59</t>
+          <t>10,71; 17,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,39</t>
+          <t>15,02; 22,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 18,91</t>
+          <t>11,92; 19,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,3</t>
+          <t>10,01; 16,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,46</t>
+          <t>13,09; 20,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,59</t>
+          <t>10,83; 16,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,57</t>
+          <t>6,53; 12,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 17,79</t>
+          <t>12,94; 17,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 17,94</t>
+          <t>12,96; 18,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 18,34</t>
+          <t>13,38; 18,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 14,15</t>
+          <t>9,55; 14,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,82</t>
+          <t>11,76; 15,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,23</t>
+          <t>13,58; 17,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 19,46</t>
+          <t>15,55; 19,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,09</t>
+          <t>13,79; 18,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,06</t>
+          <t>8,6; 11,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,4</t>
+          <t>12,44; 16,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 15,97</t>
+          <t>12,43; 15,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,71</t>
+          <t>11,05; 14,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 13,38</t>
+          <t>10,55; 13,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,31; 16,12</t>
+          <t>13,34; 16,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,07</t>
+          <t>14,36; 17,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,14; 15,91</t>
+          <t>13,02; 16,07</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive actualmente en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25061</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37699</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49379</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43239</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15443</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31308</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36654</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37779</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40504</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69006</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>86033</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>81018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16634; 37350</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26233; 51601</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>37712; 63394</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30506; 62433</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9383; 24887</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21016; 44209</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27253; 48911</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28205; 49109</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29345; 53620</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53202; 87182</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>68561; 102304</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>64238; 101429</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42770</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61343</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74024</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77364</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31020</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49921</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62355</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68308</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>73790</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>111263</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>136379</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>145672</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31017; 57831</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47811; 79001</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>56980; 91854</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57683; 99436</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20561; 43506</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37268; 65614</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>48954; 78230</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54668; 85215</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57935; 91976</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>91585; 133212</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>115347; 159227</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>122288; 174848</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33110</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56967</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>54901</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67031</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29212</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>42840</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48080</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59283</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62322</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99807</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>102981</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>126314</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23738; 46288</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43390; 72218</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41479; 69563</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50793; 85856</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20683; 41960</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31406; 57001</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36120; 60801</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45946; 74896</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46342; 77998</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>79856; 119817</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84181; 123367</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>103398; 150806</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75339</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55574</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76959</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>70872</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>65703</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>78672</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>77109</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63629</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>141041</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>134245</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>154068</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>134500</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60531; 91720</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>43074; 71652</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>62032; 94371</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56120; 89587</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>50438; 81797</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62800; 98936</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>60760; 94011</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>42642; 81604</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>120878; 163826</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>114298; 159613</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>130377; 176922</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107384; 162492</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>176279</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>211582</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>255263</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>258506</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>141378</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>202740</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>224197</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>228998</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>317657</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>414321</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>479461</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>487504</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>151556; 204574</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>187924; 245821</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>227296; 286069</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>224744; 295040</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>118904; 164076</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>177179; 229468</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>197988; 253637</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>193613; 261573</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>281649; 352236</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>374364; 452819</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>438777; 521238</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>440373; 543579</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>